--- a/Studies (Algorithms, Books, Mooks, etc.)/DA with Cloud API/빅쿼리-엑셀 커넥터.xlsx
+++ b/Studies (Algorithms, Books, Mooks, etc.)/DA with Cloud API/빅쿼리-엑셀 커넥터.xlsx
@@ -9,11 +9,13 @@
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Chart2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="BigQuery_connector" localSheetId="1">Sheet1!#REF!</definedName>
+    <definedName name="BigQuery_connector" localSheetId="3">Sheet2!$A$6:$B$51</definedName>
     <definedName name="BigQuery_connector_1" localSheetId="1">Sheet1!#REF!</definedName>
     <definedName name="BigQuery_connector_2" localSheetId="1">Sheet1!#REF!</definedName>
     <definedName name="BigQuery_connector_3" localSheetId="1">Sheet1!$A$5:$B$50</definedName>
@@ -24,7 +26,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Program Files (x86)\Microsoft Office\Office12\QUERIES\BigQuery connector.iqy" name="BigQuery connector3" type="4" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Program Files (x86)\Microsoft Office\Office12\QUERIES\BigQuery connector.iqy" name="BigQuery connector" type="4" refreshedVersion="3" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="https://bigquery-connector.appspot.com/data" post="q=[&quot;Query&quot;, &quot;Enter a query:&quot;]&amp;p=[&quot;Project&quot;,&quot;Enter a project ID:&quot;]&amp;k=[&quot;Key&quot;, &quot;Enter your Connector Key:&quot;]" htmlTables="1" htmlFormat="all"/>
+    <parameters count="3">
+      <parameter name="Query" prompt="Enter a query:"/>
+      <parameter name="Project" prompt="Enter a project ID:"/>
+      <parameter name="Key" prompt="Enter your Connector Key:"/>
+    </parameters>
+  </connection>
+  <connection id="2" odcFile="C:\Program Files (x86)\Microsoft Office\Office12\QUERIES\BigQuery connector.iqy" name="BigQuery connector3" type="4" refreshedVersion="3" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="https://bigquery-connector.appspot.com/data" post="q=[&quot;Query&quot;, &quot;Enter a query:&quot;]&amp;p=[&quot;Project&quot;,&quot;Enter a project ID:&quot;]&amp;k=[&quot;Key&quot;, &quot;Enter your Connector Key:&quot;]" htmlTables="1" htmlFormat="all"/>
     <parameters count="3">
       <parameter name="Query" prompt="Enter a query:"/>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>project id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,12 +76,23 @@
   <si>
     <t>average_weight</t>
   </si>
+  <si>
+    <t>71A2p+BGUhKBFi/mwvXZnZJFNO2khgKe18/sxnzRJPwDSmwV4exV4ZXp97ujy9fIk0oPt4X7KHx974G1zkiSYEofGi5HmCR2441O2vLHOkhPPoSzzB2kLHYT8zyhpyxisGaZ4YbxCNFZ56u9pkq64BMFkpkNQlBrIC7CC+Uc0I1QO0qjjVicr5eb2rkqXQIWaRJtA2s3wYfVP17hJR5jAQ==</t>
+  </si>
+  <si>
+    <t>#standardsql
+SELECT mother_age, count(mother_age) as cnt FROM `bigquery-public-data.samples.natality` GROUP BY mother_age order by mother_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +107,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,12 +138,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,25 +472,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178433024"/>
-        <c:axId val="99570432"/>
+        <c:axId val="141815168"/>
+        <c:axId val="145265792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178433024"/>
+        <c:axId val="141815168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99570432"/>
+        <c:crossAx val="145265792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99570432"/>
+        <c:axId val="145265792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +498,385 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178433024"/>
+        <c:crossAx val="141815168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ko-KR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>number of natality by age</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$7:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>291587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>925786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2042821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3445470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5007477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6499085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7220213</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7636072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7958580</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8113158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8206312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8303263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8271245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8109135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7818925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7430820</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6876756</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6170247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5450001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4702644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4034340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3375484</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2728957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2125735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1622028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1202542</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>848953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>559828</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>353797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>206543</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>111541</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55930</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26631</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12699</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="184989568"/>
+        <c:axId val="184991104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="184989568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184991104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184991104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184989568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -485,7 +894,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -519,8 +939,39 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307500" cy="6082500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BigQuery connector_3" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BigQuery connector_3" preserveFormatting="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BigQuery connector" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -820,7 +1271,7 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5">
+    <row r="1" spans="1:2" ht="231">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1221,12 +1672,411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>58658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>291587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>925786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2042821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3445470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5007477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6499085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7220213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7636072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7958580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8113158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8206312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8303263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8271245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8109135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7818925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7430820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6876756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6170247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5450001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4702644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4034340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3375484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2728957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2125735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1622028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1202542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>848953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>559828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>353797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>206543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
+        <v>111541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
+        <v>55930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
+        <v>26631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
